--- a/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28A888C6-B960-4CB8-9B50-168B9DD88655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9F9453EA-C35C-4CFD-B886-461AC7EABF77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>代延绪</t>
   </si>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>1.发布超长通知会发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.签到中左上角返回缺少功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.签到结果会出现4/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +404,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -452,10 +460,16 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9F9453EA-C35C-4CFD-B886-461AC7EABF77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{07550F96-A62F-4EC8-A5E1-F89EEEF6EC01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>代延绪</t>
   </si>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>5.签到结果会出现4/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +98,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,12 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -404,7 +419,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -444,6 +459,9 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{07550F96-A62F-4EC8-A5E1-F89EEEF6EC01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A96CDE7A-41E2-4315-8011-237E9CA0152C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>代延绪</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.上传资源后要把class_user表中所有学生的if_new_material和if_new_class_thing设置为是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解決</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -433,7 +445,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,18 +456,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -465,34 +483,49 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A96CDE7A-41E2-4315-8011-237E9CA0152C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE80CEF5-875B-437C-AC6E-B1DB245882C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>代延绪</t>
   </si>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
@@ -483,8 +486,14 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -497,6 +506,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -508,6 +520,9 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -518,6 +533,9 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
